--- a/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>AVL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -736,13 +740,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -833,16 +847,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,13 +887,16 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
@@ -885,11 +905,11 @@
         <v>-100</v>
       </c>
       <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -913,11 +936,11 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -926,10 +949,13 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,28 +964,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,28 +1052,31 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,28 +1084,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,40 +1133,46 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1180,7 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1436,63 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1300</v>
       </c>
       <c r="H41" s="3">
         <v>1300</v>
       </c>
       <c r="I41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,13 +1681,16 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -1606,22 +1699,25 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -1673,42 +1772,48 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1841,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E48" s="3">
         <v>115500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>115100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>115000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>114900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>120400</v>
       </c>
       <c r="I48" s="3">
         <v>120400</v>
       </c>
       <c r="J48" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K48" s="3">
         <v>120300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E54" s="3">
         <v>118900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>116100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>116600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>121900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>126000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,28 +2105,31 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,40 +2154,46 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,77 +2201,83 @@
         <v>900</v>
       </c>
       <c r="E60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E61" s="3">
         <v>4000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
       </c>
       <c r="I61" s="3">
+        <v>700</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E76" s="3">
         <v>112600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>113800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>120000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>118100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2865,22 +3086,25 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,16 +3164,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -2955,19 +3185,22 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>AVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,62 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,13 +746,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,16 +863,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,16 +906,19 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>-100</v>
@@ -908,11 +927,11 @@
         <v>-100</v>
       </c>
       <c r="H14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -939,11 +961,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -952,10 +974,13 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,31 +990,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>-700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
@@ -997,8 +1023,11 @@
       <c r="L17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1035,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,31 +1085,34 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,31 +1120,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,54 +1175,60 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,63 +1505,69 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1300</v>
       </c>
       <c r="I41" s="3">
         <v>1300</v>
       </c>
       <c r="J41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -1702,22 +1794,25 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,22 +1843,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1775,45 +1873,51 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,40 +1948,46 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E48" s="3">
         <v>115900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>115500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>115100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>115000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>114900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>120400</v>
       </c>
       <c r="J48" s="3">
         <v>120400</v>
       </c>
       <c r="K48" s="3">
+        <v>120400</v>
+      </c>
+      <c r="L48" s="3">
         <v>120300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E54" s="3">
         <v>118500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>116100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>116600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>121900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>122500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>126000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2225,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2108,28 +2238,31 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2157,43 +2290,49 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2204,83 +2343,89 @@
         <v>900</v>
       </c>
       <c r="F60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>700</v>
       </c>
       <c r="J61" s="3">
+        <v>700</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-65600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E76" s="3">
         <v>113600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>114500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3089,22 +3309,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,19 +3393,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -3188,19 +3417,22 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,36 +3595,39 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3405,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>AVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,13 +753,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -866,16 +880,19 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,19 +926,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>-100</v>
@@ -930,11 +950,11 @@
         <v>-100</v>
       </c>
       <c r="I14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -964,11 +987,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -977,10 +1000,13 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,34 +1017,35 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
@@ -1026,8 +1053,11 @@
       <c r="M17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,34 +1065,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,34 +1119,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1120,34 +1157,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
-        <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,46 +1218,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,69 +1575,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1300</v>
       </c>
       <c r="J41" s="3">
         <v>1300</v>
       </c>
       <c r="K41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1788,7 +1881,7 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -1797,22 +1890,25 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,25 +1942,28 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1876,48 +1975,54 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,43 +2056,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E48" s="3">
         <v>116100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>115900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>115500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>115100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>115000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>114900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>120400</v>
       </c>
       <c r="K48" s="3">
         <v>120400</v>
       </c>
       <c r="L48" s="3">
+        <v>120400</v>
+      </c>
+      <c r="M48" s="3">
         <v>120300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E54" s="3">
         <v>117800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>116100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>126000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,13 +2356,14 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2241,33 +2372,36 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2293,11 +2427,14 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2305,39 +2442,42 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
@@ -2346,63 +2486,69 @@
         <v>900</v>
       </c>
       <c r="G60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2410,25 +2556,25 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-65600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-64800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-60100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E76" s="3">
         <v>113900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>113600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>114500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>120000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>118200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3250,34 +3467,37 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3312,22 +3533,25 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,22 +3623,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -3420,19 +3650,22 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,51 +3829,57 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>AVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,13 +760,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,16 +897,19 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,11 +960,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
@@ -953,11 +973,11 @@
         <v>-100</v>
       </c>
       <c r="J14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -990,11 +1013,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1003,10 +1026,13 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,37 +1044,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
@@ -1056,8 +1083,11 @@
       <c r="N17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,37 +1153,40 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1160,34 +1197,37 @@
         <v>-600</v>
       </c>
       <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,49 +1261,55 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1645,81 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1300</v>
       </c>
       <c r="K41" s="3">
         <v>1300</v>
       </c>
       <c r="L41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1884,7 +1977,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -1893,22 +1986,25 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,28 +2041,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1978,51 +2077,57 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,46 +2164,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E48" s="3">
         <v>116200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>115900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>115500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>115100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>115000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>114900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>120400</v>
       </c>
       <c r="L48" s="3">
         <v>120400</v>
       </c>
       <c r="M48" s="3">
+        <v>120400</v>
+      </c>
+      <c r="N48" s="3">
         <v>120300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E54" s="3">
         <v>118500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>116100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>122500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>126000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,16 +2487,17 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2375,36 +2506,39 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -2430,11 +2564,14 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2445,42 +2582,45 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
@@ -2489,95 +2629,101 @@
         <v>900</v>
       </c>
       <c r="H60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
       </c>
       <c r="L61" s="3">
+        <v>700</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-64800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-60100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-59600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E76" s="3">
         <v>114900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>113900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>113600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>114500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>120000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>120400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>118100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>118200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3536,22 +3757,25 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,25 +3853,28 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3653,19 +3883,22 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3881,8 +4130,8 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>AVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,13 +770,19 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,16 +927,22 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,57 +982,69 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-100</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
       </c>
       <c r="K14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M14" s="3">
         <v>5600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1016,23 +1061,29 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1096,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,40 +1107,46 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>-700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-900</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1220,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1267,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,57 +1343,69 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1700</v>
       </c>
       <c r="N23" s="3">
         <v>-600</v>
       </c>
       <c r="O23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1323,17 +1414,17 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1700</v>
       </c>
       <c r="N26" s="3">
         <v>-600</v>
       </c>
       <c r="O26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1700</v>
       </c>
       <c r="N27" s="3">
         <v>-600</v>
       </c>
       <c r="O27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1784,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1700</v>
       </c>
       <c r="N33" s="3">
         <v>-600</v>
       </c>
       <c r="O33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1700</v>
       </c>
       <c r="N35" s="3">
         <v>-600</v>
       </c>
       <c r="O35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,72 +2051,80 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2700</v>
       </c>
       <c r="O41" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1962,8 +2141,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,7 +2156,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -1980,31 +2165,37 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,19 +2235,25 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
@@ -2065,13 +2262,13 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2080,54 +2277,66 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,49 +2376,61 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>116400</v>
+      </c>
+      <c r="F48" s="3">
         <v>116300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>116200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>116100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>115900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>115500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>115100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>115000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>114900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>120400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>120400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>120300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>120400</v>
+      </c>
+      <c r="F54" s="3">
         <v>121100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>118500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>117800</v>
       </c>
       <c r="G54" s="3">
         <v>118500</v>
       </c>
       <c r="H54" s="3">
+        <v>117800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>118500</v>
+      </c>
+      <c r="J54" s="3">
         <v>118900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>118800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>116100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>116600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>121900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>122500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>126000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,13 +2747,15 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2503,48 +2764,54 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2567,16 +2834,22 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -2585,7 +2858,7 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -2594,148 +2867,172 @@
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
         <v>3900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-70800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-69200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-68800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-68300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-68900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-69500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-65600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-64800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-59000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-58400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-60100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-59600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>114300</v>
+      </c>
+      <c r="F76" s="3">
         <v>114500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>114900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>113900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>113600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>112600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>110300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>113800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>114500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>120000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>120400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>118100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>118200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1700</v>
       </c>
       <c r="N81" s="3">
         <v>-600</v>
       </c>
       <c r="O81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3867,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-500</v>
       </c>
       <c r="N89" s="3">
         <v>-600</v>
       </c>
       <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,16 +4172,18 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3760,22 +4201,28 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4133,11 +4630,11 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-900</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
       </c>
       <c r="I102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>AVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,13 +780,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,16 +947,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1008,11 +1028,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
@@ -1021,11 +1041,11 @@
         <v>-100</v>
       </c>
       <c r="M14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1070,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1067,11 +1090,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1080,10 +1103,13 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,46 +1124,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1254,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,67 +1389,73 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1420,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1854,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,58 +2149,61 @@
         <v>1900</v>
       </c>
       <c r="E41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1300</v>
       </c>
       <c r="N41" s="3">
         <v>1300</v>
       </c>
       <c r="O41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
         <v>2100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2126,8 +2216,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2147,19 +2237,22 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2171,7 +2264,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2180,22 +2273,25 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,37 +2337,40 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2283,13 +2382,16 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,46 +2399,49 @@
         <v>3100</v>
       </c>
       <c r="E46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E48" s="3">
         <v>116800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>115900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>114900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>120400</v>
       </c>
       <c r="O48" s="3">
         <v>120400</v>
       </c>
       <c r="P48" s="3">
+        <v>120400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>120300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E54" s="3">
         <v>120000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>120400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>121100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>116100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>122500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>126000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,25 +2879,26 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2776,45 +2907,48 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2840,19 +2974,22 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -2864,51 +3001,54 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
@@ -2917,75 +3057,81 @@
         <v>900</v>
       </c>
       <c r="K60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>1100</v>
       </c>
       <c r="M60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3900</v>
       </c>
       <c r="F61" s="3">
         <v>3900</v>
       </c>
       <c r="G61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>700</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
+        <v>700</v>
+      </c>
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2993,37 +3139,37 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-71900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-59000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-58400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-60100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-59600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E76" s="3">
         <v>115300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>114300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>114500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>112600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>110300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>113800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>114500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>120000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>120400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>118100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>118200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,31 +4394,32 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4207,22 +4428,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,34 +4542,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -4351,19 +4581,22 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4636,8 +4885,8 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-1100</v>
       </c>
       <c r="F102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>AVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,13 +787,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,13 +921,14 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -950,16 +964,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,22 +1025,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1031,11 +1051,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>-100</v>
@@ -1044,11 +1064,11 @@
         <v>-100</v>
       </c>
       <c r="N14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O14" s="3">
         <v>5600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1096,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1093,11 +1116,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1106,10 +1129,13 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,49 +1151,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1288,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-600</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,73 +1432,79 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1469,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
         <v>1900</v>
       </c>
       <c r="F41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1300</v>
       </c>
       <c r="O41" s="3">
         <v>1300</v>
       </c>
       <c r="P41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2201,12 +2291,12 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
         <v>2100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2219,8 +2309,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2240,22 +2330,25 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2267,7 +2360,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2276,22 +2369,25 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,40 +2436,43 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2385,63 +2484,69 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="E46" s="3">
         <v>3100</v>
       </c>
       <c r="F46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E48" s="3">
         <v>117800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>116100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>114900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>120400</v>
       </c>
       <c r="P48" s="3">
         <v>120400</v>
       </c>
       <c r="Q48" s="3">
+        <v>120400</v>
+      </c>
+      <c r="R48" s="3">
         <v>120300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E54" s="3">
         <v>121000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>120000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>120400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>121100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>122500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>126000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>124000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,28 +3010,29 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2910,48 +3041,51 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2977,22 +3111,25 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3004,54 +3141,57 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
@@ -3060,119 +3200,125 @@
         <v>900</v>
       </c>
       <c r="L60" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>1100</v>
       </c>
       <c r="N60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3900</v>
       </c>
       <c r="G61" s="3">
         <v>3900</v>
       </c>
       <c r="H61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>700</v>
       </c>
       <c r="O61" s="3">
         <v>700</v>
       </c>
       <c r="P61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-71700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-60100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-59600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E76" s="3">
         <v>116400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>114300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>114900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>113600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>112600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>110300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>113800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>114500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>120000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>120400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>118100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>118200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,35 +4615,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4431,22 +4652,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,37 +4772,40 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -4584,19 +4814,22 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4888,8 +5137,8 @@
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1100</v>
       </c>
       <c r="F102" s="3">
         <v>-1100</v>
       </c>
       <c r="G102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
     </row>
